--- a/datasets/dicionarios_dados/Antropometria_HTA_4mar24.Catalogo_revisado.xlsx
+++ b/datasets/dicionarios_dados/Antropometria_HTA_4mar24.Catalogo_revisado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\mvp_analise_exploratoria_2024-09\datasets\ensanut2023\catalogos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\mvp_analise_exploratoria_2024-09\datasets\dicionarios_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA573B6-E97D-4F37-A5E0-61756FCC05BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A161C2D-DAEC-4A31-A6B9-F485A24B72C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="346">
   <si>
     <t>Etiqueta</t>
   </si>
@@ -811,12 +811,6 @@
     <t>Sinaloa</t>
   </si>
   <si>
-    <t>Variável MVP</t>
-  </si>
-  <si>
-    <t>Variável Original</t>
-  </si>
-  <si>
     <t>Posição</t>
   </si>
   <si>
@@ -829,12 +823,6 @@
     <t>Tamanho</t>
   </si>
   <si>
-    <t>id_int</t>
-  </si>
-  <si>
-    <t>id_i</t>
-  </si>
-  <si>
     <t>hora_fim_1</t>
   </si>
   <si>
@@ -904,9 +892,6 @@
     <t>resultado_entrevista_4</t>
   </si>
   <si>
-    <t>entidade</t>
-  </si>
-  <si>
     <t>sexo</t>
   </si>
   <si>
@@ -931,9 +916,6 @@
     <t>Dicionário de Dados</t>
   </si>
   <si>
-    <t>Questionário - Antropometria</t>
-  </si>
-  <si>
     <t>tempo_gestacao_mulher_12a49anos</t>
   </si>
   <si>
@@ -1058,6 +1040,30 @@
   </si>
   <si>
     <t>entrevista_completa</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>id_base</t>
+  </si>
+  <si>
+    <t>uf</t>
+  </si>
+  <si>
+    <t>desc_uf</t>
+  </si>
+  <si>
+    <t>desc_municipio</t>
+  </si>
+  <si>
+    <t>Atributo Revisado</t>
+  </si>
+  <si>
+    <t>Atributo Original</t>
+  </si>
+  <si>
+    <t>Questionário - Antropometria e Pressão Arterial</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1226,6 +1232,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1281,19 +1383,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1305,9 +1398,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1334,28 +1424,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1364,10 +1436,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1376,23 +1445,68 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1449,7 +1563,281 @@
     <cellStyle name="style1724379386787" xfId="50" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="style1724379386894" xfId="51" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF010205"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="###0"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF010205"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF010205"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF010205"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="###0"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1576,6 +1964,21 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0862690A-F0DE-4C36-8E28-9722FC6B53E5}" name="Tabela1" displayName="Tabela1" ref="A3:F100" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7" headerRowCellStyle="style1724379384150">
+  <autoFilter ref="A3:F100" xr:uid="{0862690A-F0DE-4C36-8E28-9722FC6B53E5}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{3C4443F7-580D-49D9-8727-60BB03BAF8B8}" name="Atributo Revisado" dataDxfId="6" dataCellStyle="style1724379384539"/>
+    <tableColumn id="2" xr3:uid="{E5A6DC17-5310-4633-B90A-5DDC5B20D481}" name="Atributo Original" dataDxfId="5" dataCellStyle="style1724379384539"/>
+    <tableColumn id="3" xr3:uid="{48BCDCEA-17D7-4422-8D30-4FC4CD8258EA}" name="Posição" dataDxfId="4" dataCellStyle="style1724379384956"/>
+    <tableColumn id="4" xr3:uid="{6F7C2646-5F92-4D69-9402-96D3607EAA46}" name="Descrição/Questão" dataDxfId="3" dataCellStyle="style1724379385097"/>
+    <tableColumn id="5" xr3:uid="{CDB88D76-C3F0-4E86-8CEE-C5CCAACBBB55}" name="Nível de Medição" dataDxfId="2" dataCellStyle="style1724379385097"/>
+    <tableColumn id="6" xr3:uid="{10C5A575-3F87-42B4-B0BC-D26A362CFA6E}" name="Tamanho" dataDxfId="1" dataCellStyle="style1724379385266"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1898,1999 +2301,1999 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="24" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="17" customWidth="1"/>
-    <col min="7" max="16381" width="8.7109375" style="17"/>
-    <col min="16382" max="16384" width="11.5703125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="24" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="13" customWidth="1"/>
+    <col min="7" max="16381" width="8.7109375" style="13"/>
+    <col min="16382" max="16384" width="11.5703125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:6" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="19">
+        <v>2</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="19">
+        <v>3</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="19">
+        <v>4</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="19">
+        <v>5</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="19">
+        <v>6</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="19">
+        <v>7</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="19">
+        <v>8</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="19">
+        <v>9</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="19">
+        <v>10</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="19">
+        <v>11</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="19">
+        <v>12</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="19">
+        <v>13</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="19">
+        <v>14</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="19">
+        <v>15</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="19">
+        <v>16</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="19">
+        <v>17</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="19">
+        <v>18</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="19">
+        <v>19</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="19">
+        <v>20</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="19">
+        <v>21</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="19">
+        <v>22</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="19">
+        <v>23</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="19">
+        <v>24</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="19">
+        <v>25</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="19">
+        <v>26</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="19">
+        <v>27</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="19">
+        <v>28</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="19">
+        <v>29</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="19">
+        <v>30</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="19">
+        <v>31</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="19">
+        <v>32</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="19">
+        <v>33</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="19">
+        <v>34</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="19">
+        <v>35</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="19">
+        <v>36</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="19">
+        <v>37</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="19">
+        <v>38</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="19">
+        <v>39</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="19">
+        <v>40</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="19">
+        <v>41</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="19">
+        <v>42</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="19">
+        <v>43</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="19">
+        <v>44</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="19">
+        <v>45</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="19">
+        <v>46</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="19">
+        <v>47</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="19">
+        <v>48</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="B52" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="19">
+        <v>49</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="19">
+        <v>50</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="26">
-        <v>1</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="27" t="s">
+      <c r="B54" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="19">
+        <v>51</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="19">
+        <v>52</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="19">
+        <v>53</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="19">
+        <v>54</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="19">
+        <v>55</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="19">
+        <v>56</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="19">
+        <v>57</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="19">
+        <v>58</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="19">
+        <v>59</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="19">
+        <v>60</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A64" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="19">
+        <v>61</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="19">
+        <v>62</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="19">
+        <v>63</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="19">
+        <v>64</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="19">
+        <v>65</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="19">
+        <v>66</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" s="19">
+        <v>67</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="19">
+        <v>68</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="19">
+        <v>69</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="19">
+        <v>70</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A74" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="19">
+        <v>71</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="19">
+        <v>72</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="19">
+        <v>73</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="19">
+        <v>74</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" s="19">
+        <v>75</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" s="19">
+        <v>76</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" s="19">
+        <v>77</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" s="19">
+        <v>78</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" s="19">
+        <v>79</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" s="19">
+        <v>80</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" s="19">
+        <v>81</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="19">
+        <v>82</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E85" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="30">
-        <v>2</v>
-      </c>
-      <c r="D5" s="31" t="s">
+      <c r="F85" s="31">
         <v>5</v>
       </c>
-      <c r="E5" s="31" t="s">
+    </row>
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86" s="19">
+        <v>83</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" s="19">
+        <v>84</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" s="19">
+        <v>85</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" s="19">
+        <v>86</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" s="19">
+        <v>87</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E90" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="32">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="30">
+      <c r="F90" s="31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" s="19">
+        <v>88</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" s="19">
+        <v>89</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E92" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="31" t="s">
+      <c r="F92" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" s="19">
+        <v>90</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="E93" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F93" s="31">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="30">
-        <v>4</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="31" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C94" s="19">
+        <v>91</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" s="19">
+        <v>92</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C96" s="19">
+        <v>93</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E96" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F96" s="31">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="29" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" s="19">
+        <v>94</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="31">
         <v>10</v>
       </c>
-      <c r="C8" s="30">
-        <v>5</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="31" t="s">
+    </row>
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" s="19">
+        <v>95</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E98" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F98" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" s="19">
+        <v>96</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99" s="31">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="30">
-        <v>6</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="31" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" s="39">
+        <v>97</v>
+      </c>
+      <c r="D100" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E100" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F100" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="30">
-        <v>7</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="30">
-        <v>8</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="30">
-        <v>9</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="30">
-        <v>10</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="30">
-        <v>11</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="30">
-        <v>12</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="30">
-        <v>13</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="30">
-        <v>14</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="30">
-        <v>15</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="30">
-        <v>16</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="30">
-        <v>17</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="30">
-        <v>18</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="30">
-        <v>19</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="30">
-        <v>20</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="30">
-        <v>21</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="30">
-        <v>22</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="30">
-        <v>23</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="30">
-        <v>24</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="30">
-        <v>25</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="30">
-        <v>26</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="30">
-        <v>27</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="30">
-        <v>28</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="30">
-        <v>29</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="30">
-        <v>30</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="30">
-        <v>31</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="32">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="30">
-        <v>32</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="30">
-        <v>33</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="32">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="30">
-        <v>34</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="30">
-        <v>35</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="30">
-        <v>36</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="30">
-        <v>37</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="30">
-        <v>38</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="30">
-        <v>39</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="30">
-        <v>40</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="30">
-        <v>41</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="30">
-        <v>42</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="30">
-        <v>43</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="30">
-        <v>44</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="30">
-        <v>45</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="30">
-        <v>46</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="30">
-        <v>47</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="30">
-        <v>48</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="30">
-        <v>49</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" s="30">
-        <v>50</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="30">
-        <v>51</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="30">
-        <v>52</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="30">
-        <v>53</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="30">
-        <v>54</v>
-      </c>
-      <c r="D57" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="30">
-        <v>55</v>
-      </c>
-      <c r="D58" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="E58" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="30">
-        <v>56</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E59" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="30">
-        <v>57</v>
-      </c>
-      <c r="D60" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="E60" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" s="30">
-        <v>58</v>
-      </c>
-      <c r="D61" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="30">
-        <v>59</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C63" s="30">
-        <v>60</v>
-      </c>
-      <c r="D63" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A64" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="30">
-        <v>61</v>
-      </c>
-      <c r="D64" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="B65" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C65" s="30">
-        <v>62</v>
-      </c>
-      <c r="D65" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="E65" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="B66" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="30">
-        <v>63</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="B67" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="30">
-        <v>64</v>
-      </c>
-      <c r="D67" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="B68" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C68" s="30">
-        <v>65</v>
-      </c>
-      <c r="D68" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E68" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="B69" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C69" s="30">
-        <v>66</v>
-      </c>
-      <c r="D69" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E69" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" s="30">
-        <v>67</v>
-      </c>
-      <c r="D70" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E70" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="B71" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" s="30">
-        <v>68</v>
-      </c>
-      <c r="D71" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="B72" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" s="30">
-        <v>69</v>
-      </c>
-      <c r="D72" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B73" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="C73" s="30">
-        <v>70</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="E73" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A74" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="B74" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C74" s="30">
-        <v>71</v>
-      </c>
-      <c r="D74" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="E74" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="B75" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C75" s="30">
-        <v>72</v>
-      </c>
-      <c r="D75" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="E75" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="B76" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C76" s="30">
-        <v>73</v>
-      </c>
-      <c r="D76" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="E76" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C77" s="30">
-        <v>74</v>
-      </c>
-      <c r="D77" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="E77" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B78" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C78" s="30">
-        <v>75</v>
-      </c>
-      <c r="D78" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="E78" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="B79" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="C79" s="30">
-        <v>76</v>
-      </c>
-      <c r="D79" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="E79" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="B80" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="C80" s="30">
-        <v>77</v>
-      </c>
-      <c r="D80" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="E80" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="B81" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="C81" s="30">
-        <v>78</v>
-      </c>
-      <c r="D81" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="E81" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="B82" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C82" s="30">
-        <v>79</v>
-      </c>
-      <c r="D82" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="E82" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="B83" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C83" s="30">
-        <v>80</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84" s="29" t="s">
-        <v>338</v>
-      </c>
-      <c r="B84" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C84" s="30">
-        <v>81</v>
-      </c>
-      <c r="D84" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E84" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="B85" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="C85" s="30">
-        <v>82</v>
-      </c>
-      <c r="D85" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="E85" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F85" s="32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="B86" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C86" s="30">
-        <v>83</v>
-      </c>
-      <c r="D86" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="E86" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="B87" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="C87" s="30">
-        <v>84</v>
-      </c>
-      <c r="D87" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="E87" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F87" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B88" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="C88" s="30">
-        <v>85</v>
-      </c>
-      <c r="D88" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="E88" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B89" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C89" s="30">
-        <v>86</v>
-      </c>
-      <c r="D89" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="E89" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="32">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="B90" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C90" s="30">
-        <v>87</v>
-      </c>
-      <c r="D90" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="E90" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F90" s="32">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="B91" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C91" s="30">
-        <v>88</v>
-      </c>
-      <c r="D91" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="E91" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="B92" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C92" s="30">
-        <v>89</v>
-      </c>
-      <c r="D92" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="E92" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F92" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="B93" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="C93" s="30">
-        <v>90</v>
-      </c>
-      <c r="D93" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="E93" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F93" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="B94" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C94" s="30">
-        <v>91</v>
-      </c>
-      <c r="D94" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="E94" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="B95" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C95" s="30">
-        <v>92</v>
-      </c>
-      <c r="D95" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="E95" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F95" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="B96" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="C96" s="30">
-        <v>93</v>
-      </c>
-      <c r="D96" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="E96" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F96" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B97" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="C97" s="30">
-        <v>94</v>
-      </c>
-      <c r="D97" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E97" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="B98" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="C98" s="30">
-        <v>95</v>
-      </c>
-      <c r="D98" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="E98" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F98" s="32">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="B99" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C99" s="30">
-        <v>96</v>
-      </c>
-      <c r="D99" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="E99" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F99" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B100" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="C100" s="34">
-        <v>97</v>
-      </c>
-      <c r="D100" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="E100" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="36">
-        <v>10</v>
-      </c>
-    </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="21"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3898,6 +4301,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3910,1064 +4316,1079 @@
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="16" spans="1:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="7" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="7" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="48" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="10" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="7" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="10" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="23"/>
+      <c r="B36" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="10" t="s">
+      <c r="A40" s="23"/>
+      <c r="B40" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="10" t="s">
+      <c r="A41" s="23"/>
+      <c r="B41" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="7" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="10" t="s">
+      <c r="A46" s="23"/>
+      <c r="B46" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="10" t="s">
+      <c r="A47" s="23"/>
+      <c r="B47" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="10" t="s">
+      <c r="A48" s="23"/>
+      <c r="B48" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="10" t="s">
+      <c r="A49" s="23"/>
+      <c r="B49" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="7" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="48" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="10" t="s">
+      <c r="A51" s="23"/>
+      <c r="B51" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="10" t="s">
+      <c r="A52" s="23"/>
+      <c r="B52" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="7" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="10" t="s">
+      <c r="A53" s="23"/>
+      <c r="B53" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="48" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="10" t="s">
+      <c r="A54" s="23"/>
+      <c r="B54" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="7" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="10" t="s">
+      <c r="A55" s="23"/>
+      <c r="B55" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="7" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="10" t="s">
+      <c r="A58" s="23"/>
+      <c r="B58" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="7" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="10" t="s">
+      <c r="A59" s="23"/>
+      <c r="B59" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="10" t="s">
+      <c r="A60" s="23"/>
+      <c r="B60" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="10" t="s">
+      <c r="A62" s="23"/>
+      <c r="B62" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="10" t="s">
+      <c r="A63" s="23"/>
+      <c r="B63" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="10" t="s">
+      <c r="A66" s="23"/>
+      <c r="B66" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="10" t="s">
+      <c r="A67" s="23"/>
+      <c r="B67" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="10" t="s">
+      <c r="A70" s="23"/>
+      <c r="B70" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="10" t="s">
+      <c r="A71" s="23"/>
+      <c r="B71" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="10" t="s">
+      <c r="A74" s="23"/>
+      <c r="B74" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="10" t="s">
+      <c r="A75" s="23"/>
+      <c r="B75" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="10" t="s">
+      <c r="A78" s="23"/>
+      <c r="B78" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="10" t="s">
+      <c r="A79" s="23"/>
+      <c r="B79" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="10" t="s">
+      <c r="A86" s="23"/>
+      <c r="B86" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="10" t="s">
+      <c r="A87" s="23"/>
+      <c r="B87" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="10" t="s">
+      <c r="A90" s="23"/>
+      <c r="B90" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="10" t="s">
+      <c r="A91" s="23"/>
+      <c r="B91" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="10" t="s">
+      <c r="A100" s="23"/>
+      <c r="B100" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="10" t="s">
+      <c r="A101" s="23"/>
+      <c r="B101" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="7" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="10" t="s">
+      <c r="A103" s="23"/>
+      <c r="B103" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="10" t="s">
+      <c r="A104" s="23"/>
+      <c r="B104" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="10" t="s">
+      <c r="A105" s="23"/>
+      <c r="B105" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="7" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="7" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="10" t="s">
+      <c r="A108" s="23"/>
+      <c r="B108" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="7" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="48" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="10" t="s">
+      <c r="A109" s="23"/>
+      <c r="B109" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="7" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="48" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="B110" s="10" t="s">
+      <c r="A110" s="23"/>
+      <c r="B110" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="7" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="10" t="s">
+      <c r="A111" s="23"/>
+      <c r="B111" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="7" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="48" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="10" t="s">
+      <c r="A112" s="23"/>
+      <c r="B112" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="7" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="10" t="s">
+      <c r="A113" s="23"/>
+      <c r="B113" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="7" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="10" t="s">
+      <c r="A114" s="23"/>
+      <c r="B114" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="7" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="B116" s="10" t="s">
+      <c r="A116" s="23"/>
+      <c r="B116" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="10" t="s">
+      <c r="A117" s="23"/>
+      <c r="B117" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="10" t="s">
+      <c r="A119" s="24"/>
+      <c r="B119" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="10" t="s">
+      <c r="A120" s="24"/>
+      <c r="B120" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="10" t="s">
+      <c r="A121" s="24"/>
+      <c r="B121" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="12" t="s">
+      <c r="A122" s="24"/>
+      <c r="B122" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C122" s="13" t="s">
+      <c r="C122" s="9" t="s">
         <v>260</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A77:A79"/>
     <mergeCell ref="A115:A117"/>
     <mergeCell ref="A118:A122"/>
     <mergeCell ref="A85:A87"/>
@@ -4975,21 +5396,6 @@
     <mergeCell ref="A99:A101"/>
     <mergeCell ref="A102:A105"/>
     <mergeCell ref="A107:A114"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A29:A31"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
